--- a/misPython_doc/DataMirrorJuly2025.xlsx.xlsx
+++ b/misPython_doc/DataMirrorJuly2025.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eidil\Documents\Data Mirror\2025\7. July\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{108AA52C-649A-4E6C-8653-B462F49F8899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1251CDC-A612-41C1-BE62-937D34369582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C56DAB54-4F02-499C-BD32-FD1D1815C939}"/>
   </bookViews>
@@ -18,17 +18,30 @@
     <sheet name="Other Charges Conv" sheetId="3" r:id="rId3"/>
     <sheet name="IIS" sheetId="4" r:id="rId4"/>
     <sheet name="Penalty" sheetId="5" r:id="rId5"/>
-    <sheet name="Ta'widh Recovery" sheetId="6" r:id="rId6"/>
-    <sheet name="PIS" sheetId="7" r:id="rId7"/>
+    <sheet name="Ta'widh Recovery" sheetId="11" r:id="rId6"/>
+    <sheet name="PIS" sheetId="13" r:id="rId7"/>
     <sheet name="Ta'widh Active" sheetId="8" r:id="rId8"/>
     <sheet name="Profit" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="591">
   <si>
     <t xml:space="preserve"> Customer</t>
   </si>
@@ -1792,6 +1805,15 @@
   </si>
   <si>
     <t>Tiong Nam TFi3 - 1st Profit Payment</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Inno Wangsa - Compensation</t>
+  </si>
+  <si>
+    <t>Inno Wangsa - Profit Payment</t>
   </si>
 </sst>
 </file>
@@ -3047,7 +3069,7 @@
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -11749,17 +11771,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B49C5A-5079-4272-9AC1-499A067BBC4A}">
-  <dimension ref="A1:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E5A8F-3A30-4146-815C-BE2EBF1755EF}">
+  <dimension ref="A2:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="11.4" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11767,7 +11809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -11775,8 +11817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="11.4" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -11784,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -11792,9 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" ht="11.4" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" s="1" customFormat="1" ht="11.4" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -11839,6 +11878,44 @@
       </c>
       <c r="R9" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <v>501046</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1">
+        <v>103206717</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2">
+        <v>-1002.32</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-237.55</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4.2194099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11847,11 +11924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052B6AE6-C7CF-41BE-8F6D-0A1469BA114E}">
-  <dimension ref="A2:R12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B769E5B-515D-4FEE-B793-395DA0EBF7C4}">
+  <dimension ref="A2:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -11999,7 +12076,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D12" s="1">
-        <v>501256</v>
+        <v>501046</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -12008,33 +12085,74 @@
         <v>287</v>
       </c>
       <c r="H12" s="1">
-        <v>103203129</v>
+        <v>103206717</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>282</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-45470.01</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="2">
+        <v>-10776.16</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4.2195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <v>501256</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="1">
+        <v>103203129</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M13" s="2">
         <v>-7992.24</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="2">
         <v>-7992.24</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="P13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R13" s="1">
         <v>1</v>
       </c>
     </row>
